--- a/sample_files/QueueTemplate.xlsx
+++ b/sample_files/QueueTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danyingshao/tmp/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danyingshao/workspace/PughLab/pegr/sample_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EC1314-A30B-2149-922E-4C4A8DB08A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B78F7D9-9D67-2647-B8F3-687E383854F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35420" yWindow="-16380" windowWidth="28800" windowHeight="17540" tabRatio="556" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE" sheetId="21" r:id="rId1"/>
@@ -398,7 +398,7 @@
     <numFmt numFmtId="164" formatCode="yy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -563,20 +563,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Courier"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF008000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="0" tint="-0.499984740745262"/>
@@ -601,11 +587,6 @@
       <b/>
       <sz val="12"/>
       <color indexed="9"/>
-      <name val="Courier"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Courier"/>
       <family val="1"/>
     </font>
@@ -648,14 +629,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Courier"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="24">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,24 +736,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEE4E4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -992,7 +949,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1092,12 +1049,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1121,7 +1072,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1137,17 +1088,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1187,7 +1138,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1208,22 +1159,19 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="36" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1232,9 +1180,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1253,7 +1198,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1265,7 +1210,7 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1274,16 +1219,16 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1296,51 +1241,43 @@
     <xf numFmtId="49" fontId="21" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="45"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="45" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1770,10 +1707,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DX896"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="GV1" sqref="GV1"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="BD10" sqref="BD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1870,13 +1807,13 @@
     <col min="104" max="104" width="45.6640625" style="20" hidden="1" customWidth="1"/>
     <col min="105" max="106" width="3.6640625" style="34" hidden="1" customWidth="1"/>
     <col min="107" max="107" width="5" style="3" hidden="1" customWidth="1"/>
-    <col min="108" max="108" width="12.6640625" style="50" hidden="1" customWidth="1"/>
+    <col min="108" max="108" width="12.6640625" style="48" hidden="1" customWidth="1"/>
     <col min="109" max="109" width="2" style="4" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="5" style="32" hidden="1" customWidth="1"/>
     <col min="111" max="111" width="5.1640625" style="18" hidden="1" customWidth="1"/>
     <col min="112" max="112" width="10.83203125" style="19" hidden="1" customWidth="1"/>
     <col min="113" max="113" width="5.5" style="19" hidden="1" customWidth="1"/>
-    <col min="114" max="114" width="18.1640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="18.1640625" style="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:128" s="44" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1906,73 +1843,73 @@
       <c r="J1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="77" t="s">
+      <c r="O1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="78" t="s">
+      <c r="P1" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="78" t="s">
+      <c r="Q1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="79" t="s">
+      <c r="R1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="79" t="s">
+      <c r="S1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="79" t="s">
+      <c r="T1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="79" t="s">
+      <c r="U1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="79" t="s">
+      <c r="V1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="79" t="s">
+      <c r="W1" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="79" t="s">
+      <c r="X1" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="79" t="s">
+      <c r="Y1" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="79" t="s">
+      <c r="Z1" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="66" t="s">
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" s="66" t="s">
+      <c r="AE1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AF1" s="66" t="s">
+      <c r="AF1" s="64" t="s">
         <v>12</v>
       </c>
       <c r="AG1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="66" t="s">
+      <c r="AH1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="66" t="s">
+      <c r="AI1" s="64" t="s">
         <v>15</v>
       </c>
       <c r="AJ1" s="38" t="s">
@@ -1984,42 +1921,42 @@
       <c r="AL1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="66" t="s">
+      <c r="AM1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="67" t="s">
+      <c r="AN1" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="AO1" s="67"/>
+      <c r="AO1" s="65"/>
       <c r="AP1" s="39"/>
-      <c r="AQ1" s="68" t="s">
+      <c r="AQ1" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AR1" s="66" t="s">
+      <c r="AR1" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="AS1" s="66" t="s">
+      <c r="AS1" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="AT1" s="69" t="s">
+      <c r="AT1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="AU1" s="70" t="s">
+      <c r="AU1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AV1" s="71" t="s">
+      <c r="AV1" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="AW1" s="70" t="s">
+      <c r="AW1" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="AX1" s="70" t="s">
+      <c r="AX1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="AY1" s="67" t="s">
+      <c r="AY1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="AZ1" s="67" t="s">
+      <c r="AZ1" s="65" t="s">
         <v>68</v>
       </c>
       <c r="BA1" s="38" t="s">
@@ -2055,50 +1992,50 @@
       <c r="BM1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BN1" s="86"/>
-      <c r="BO1" s="87" t="s">
+      <c r="BN1" s="84"/>
+      <c r="BO1" s="85" t="s">
         <v>33</v>
       </c>
       <c r="BP1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="BQ1" s="88" t="s">
+      <c r="BQ1" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="BR1" s="81"/>
-      <c r="BS1" s="89"/>
-      <c r="BT1" s="81"/>
-      <c r="BU1" s="81"/>
-      <c r="BV1" s="90"/>
-      <c r="BW1" s="81"/>
+      <c r="BR1" s="79"/>
+      <c r="BS1" s="87"/>
+      <c r="BT1" s="79"/>
+      <c r="BU1" s="79"/>
+      <c r="BV1" s="88"/>
+      <c r="BW1" s="79"/>
       <c r="BX1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="BY1" s="81" t="s">
+      <c r="BY1" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="BZ1" s="81" t="s">
+      <c r="BZ1" s="79" t="s">
         <v>37</v>
       </c>
       <c r="CA1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="CB1" s="81" t="s">
+      <c r="CB1" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="CC1" s="88" t="s">
+      <c r="CC1" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="CD1" s="88" t="s">
+      <c r="CD1" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="CE1" s="91" t="s">
+      <c r="CE1" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="CF1" s="92" t="s">
+      <c r="CF1" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="CG1" s="93"/>
+      <c r="CG1" s="91"/>
       <c r="CH1" s="38" t="s">
         <v>40</v>
       </c>
@@ -2120,38 +2057,38 @@
       <c r="CN1" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="CO1" s="94" t="s">
+      <c r="CO1" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="CP1" s="85"/>
-      <c r="CQ1" s="55" t="s">
+      <c r="CP1" s="83"/>
+      <c r="CQ1" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="CR1" s="56"/>
-      <c r="CS1" s="57"/>
-      <c r="CT1" s="57"/>
-      <c r="CU1" s="57"/>
-      <c r="CV1" s="57" t="s">
+      <c r="CR1" s="54"/>
+      <c r="CS1" s="55"/>
+      <c r="CT1" s="55"/>
+      <c r="CU1" s="55"/>
+      <c r="CV1" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="CW1" s="57" t="s">
+      <c r="CW1" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="CX1" s="83" t="s">
+      <c r="CX1" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="CY1" s="136"/>
-      <c r="CZ1" s="137"/>
-      <c r="DA1" s="138"/>
-      <c r="DB1" s="138"/>
-      <c r="DC1" s="136"/>
-      <c r="DD1" s="139"/>
-      <c r="DE1" s="140"/>
-      <c r="DF1" s="141"/>
-      <c r="DG1" s="141"/>
-      <c r="DH1" s="141"/>
-      <c r="DI1" s="141"/>
-      <c r="DJ1" s="64" t="s">
+      <c r="CY1" s="128"/>
+      <c r="CZ1" s="129"/>
+      <c r="DA1" s="130"/>
+      <c r="DB1" s="130"/>
+      <c r="DC1" s="128"/>
+      <c r="DD1" s="131"/>
+      <c r="DE1" s="132"/>
+      <c r="DF1" s="133"/>
+      <c r="DG1" s="133"/>
+      <c r="DH1" s="133"/>
+      <c r="DI1" s="133"/>
+      <c r="DJ1" s="62" t="s">
         <v>49</v>
       </c>
       <c r="DK1"/>
@@ -2169,11 +2106,11 @@
       <c r="DW1"/>
       <c r="DX1"/>
     </row>
-    <row r="2" spans="1:128" s="105" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
+    <row r="2" spans="1:128" s="101" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
       <c r="K2" s="4" t="str">
         <f>IF(AV2="","•••••••",CONCATENATE('[1]Submitter Information'!$C$9,", ",'[1]Submitter Information'!$A$9))</f>
         <v>•••••••</v>
@@ -2190,57 +2127,57 @@
         <f>IF(AV2="","•••••••",'[1]Submitter Information'!F$4)</f>
         <v>•••••••</v>
       </c>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="108"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="108"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="106"/>
-      <c r="AV2" s="109"/>
-      <c r="AW2" s="106"/>
-      <c r="AX2" s="106"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BE2" s="104"/>
-      <c r="BN2" s="110"/>
-      <c r="BO2" s="111"/>
-      <c r="BQ2" s="112"/>
-      <c r="BR2" s="107"/>
-      <c r="BS2" s="113"/>
-      <c r="BT2" s="107"/>
-      <c r="BU2" s="107"/>
-      <c r="BV2" s="114"/>
-      <c r="BW2" s="107"/>
-      <c r="BY2" s="107"/>
-      <c r="BZ2" s="107"/>
-      <c r="CB2" s="107"/>
-      <c r="CC2" s="112"/>
-      <c r="CD2" s="115"/>
-      <c r="CE2" s="116"/>
-      <c r="CF2" s="117"/>
-      <c r="CG2" s="118"/>
-      <c r="CN2" s="119"/>
-      <c r="CO2" s="119"/>
-      <c r="CP2" s="120"/>
-      <c r="CQ2" s="121"/>
-      <c r="CR2" s="122"/>
-      <c r="CX2" s="107"/>
-      <c r="CY2" s="123"/>
-      <c r="CZ2" s="124"/>
-      <c r="DA2" s="125"/>
-      <c r="DB2" s="125"/>
-      <c r="DC2" s="123"/>
-      <c r="DE2" s="54"/>
-      <c r="DF2" s="104"/>
-      <c r="DG2" s="104"/>
-      <c r="DH2" s="104"/>
-      <c r="DI2" s="104"/>
-      <c r="DJ2" s="126"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="104"/>
+      <c r="AN2" s="103"/>
+      <c r="AO2" s="103"/>
+      <c r="AP2" s="103"/>
+      <c r="AQ2" s="104"/>
+      <c r="AT2" s="100"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="102"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BE2" s="100"/>
+      <c r="BN2" s="106"/>
+      <c r="BO2" s="107"/>
+      <c r="BQ2" s="108"/>
+      <c r="BR2" s="103"/>
+      <c r="BS2" s="109"/>
+      <c r="BT2" s="103"/>
+      <c r="BU2" s="103"/>
+      <c r="BV2" s="110"/>
+      <c r="BW2" s="103"/>
+      <c r="BY2" s="103"/>
+      <c r="BZ2" s="103"/>
+      <c r="CB2" s="103"/>
+      <c r="CC2" s="108"/>
+      <c r="CD2" s="111"/>
+      <c r="CE2" s="112"/>
+      <c r="CF2" s="113"/>
+      <c r="CG2" s="114"/>
+      <c r="CN2" s="115"/>
+      <c r="CO2" s="115"/>
+      <c r="CP2" s="116"/>
+      <c r="CQ2" s="117"/>
+      <c r="CR2" s="118"/>
+      <c r="CX2" s="103"/>
+      <c r="CY2" s="119"/>
+      <c r="CZ2" s="120"/>
+      <c r="DA2" s="121"/>
+      <c r="DB2" s="121"/>
+      <c r="DC2" s="119"/>
+      <c r="DE2" s="52"/>
+      <c r="DF2" s="100"/>
+      <c r="DG2" s="100"/>
+      <c r="DH2" s="100"/>
+      <c r="DI2" s="100"/>
+      <c r="DJ2" s="122"/>
       <c r="DK2" s="4"/>
       <c r="DL2" s="4"/>
       <c r="DM2" s="4"/>
@@ -2257,58 +2194,52 @@
       <c r="DX2" s="4"/>
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="95"/>
+      <c r="N3"/>
       <c r="Y3" s="11"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="99"/>
-      <c r="AQ3" s="95"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="96"/>
+      <c r="AQ3"/>
       <c r="BJ3" s="3"/>
-      <c r="BK3" s="100"/>
-      <c r="BL3" s="100"/>
+      <c r="BK3" s="97"/>
+      <c r="BL3" s="97"/>
       <c r="BN3" s="35"/>
-      <c r="BQ3" s="101"/>
-      <c r="BS3" s="102"/>
+      <c r="BQ3"/>
+      <c r="BS3" s="98"/>
       <c r="BV3"/>
       <c r="BW3"/>
       <c r="BX3" s="3"/>
-      <c r="CC3" s="101"/>
-      <c r="CD3" s="101"/>
-      <c r="CE3" s="131"/>
-      <c r="CF3" s="132"/>
-      <c r="CG3" s="133"/>
-      <c r="CM3" s="100"/>
-      <c r="CP3" s="85"/>
+      <c r="CC3"/>
+      <c r="CG3" s="126"/>
+      <c r="CM3" s="97"/>
+      <c r="CP3" s="83"/>
       <c r="CQ3" s="33"/>
-      <c r="CR3" s="49"/>
-      <c r="CS3" s="130"/>
-      <c r="CT3" s="130"/>
-      <c r="CU3" s="130"/>
+      <c r="CR3" s="47"/>
+      <c r="CS3" s="125"/>
+      <c r="CT3" s="125"/>
+      <c r="CU3" s="125"/>
       <c r="CV3" s="12"/>
       <c r="CW3" s="3"/>
       <c r="CX3" s="3"/>
       <c r="CY3" s="3"/>
-      <c r="CZ3" s="82"/>
-      <c r="DA3" s="82"/>
-      <c r="DB3" s="82"/>
+      <c r="CZ3" s="80"/>
+      <c r="DA3" s="80"/>
+      <c r="DB3" s="80"/>
       <c r="DE3" s="31"/>
-      <c r="DF3" s="51"/>
-      <c r="DG3" s="52"/>
-      <c r="DH3" s="53"/>
-      <c r="DI3" s="52"/>
-      <c r="DJ3" s="129"/>
+      <c r="DF3" s="49"/>
+      <c r="DG3" s="50"/>
+      <c r="DH3" s="51"/>
+      <c r="DI3" s="50"/>
+      <c r="DJ3"/>
     </row>
     <row r="4" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A4"/>
@@ -63055,7 +62986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
@@ -63066,7 +62997,7 @@
     <col min="2" max="5" width="8.1640625" style="1" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="59" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="57" customWidth="1"/>
     <col min="10" max="10" width="5" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="1" customWidth="1"/>
@@ -63095,17 +63026,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="85" x14ac:dyDescent="0.2">
-      <c r="A1" s="72"/>
+      <c r="A1" s="70"/>
       <c r="B1" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="74" t="s">
         <v>81</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -63115,7 +63046,7 @@
         <v>29</v>
       </c>
       <c r="H1" s="6"/>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="60" t="s">
         <v>83</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -63127,25 +63058,25 @@
       <c r="L1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="76" t="s">
+      <c r="N1" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="76" t="s">
+      <c r="O1" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="R1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="59" t="s">
         <v>47</v>
       </c>
       <c r="T1" s="7"/>
@@ -63176,7 +63107,7 @@
       <c r="AC1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AD1" s="73" t="s">
+      <c r="AD1" s="71" t="s">
         <v>98</v>
       </c>
       <c r="AE1" s="8" t="s">
@@ -63191,47 +63122,47 @@
       <c r="AH1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AI1" s="73" t="s">
+      <c r="AI1" s="71" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127"/>
+      <c r="A2" s="123"/>
       <c r="G2" s="10"/>
-      <c r="I2" s="63"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="60"/>
+      <c r="K2" s="58"/>
       <c r="N2" s="9"/>
-      <c r="S2" s="84"/>
+      <c r="S2" s="82"/>
       <c r="Z2" s="17"/>
     </row>
     <row r="3" spans="1:35" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="128"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="124"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
